--- a/data/trans_bre/P40_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,37%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>103,97%</t>
+          <t>24,77%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>144,57%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>68,79%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 8,91</t>
+          <t>-10,16; 10,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 11,03</t>
+          <t>1,16; 13,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 6,46</t>
+          <t>-3,65; 7,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 9,01</t>
+          <t>0,63; 12,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 103,42</t>
+          <t>-1,44; 11,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,63; 199,77</t>
+          <t>-46,42; 123,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 165,66</t>
+          <t>3,68; 269,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 305,4</t>
+          <t>-36,75; 167,14</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 527,11</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-13,85; 248,34</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,7%</t>
+          <t>54,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,48%</t>
+          <t>21,15%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>41,51%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75,29%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 13,46</t>
+          <t>-5,67; 14,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 11,15</t>
+          <t>-3,3; 17,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 11,58</t>
+          <t>-7,56; 11,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 14,4</t>
+          <t>-4,46; 16,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 91,64</t>
+          <t>-2,03; 14,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,84; 74,4</t>
+          <t>-26,6; 123,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 151,75</t>
+          <t>-19,48; 178,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 173,02</t>
+          <t>-36,93; 141,9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-22,42; 190,31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-16,01; 290,48</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>-8,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,17</t>
+          <t>24,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,71</t>
+          <t>20,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>-26,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>505,29%</t>
+          <t>-28,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1243,7%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,40 +934,50 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 20,38</t>
+          <t>-45,66; 18,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 22,19</t>
+          <t>-49,1; 16,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,72; 29,14</t>
+          <t>11,5; 40,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,69; 30,12</t>
+          <t>10,43; 40,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,63; 211,13</t>
+          <t>5,88; 34,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,48; 220,84</t>
+          <t>-86,45; 192,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,12; —</t>
+          <t>-82,84; 123,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,8%</t>
+          <t>38,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>46,88%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>95,67%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>96,58%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 8,84</t>
+          <t>-6,96; 9,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 9,13</t>
+          <t>-4,26; 11,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 8,18</t>
+          <t>-1,28; 9,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 10,8</t>
+          <t>2,22; 13,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 69,61</t>
+          <t>2,58; 11,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 79,78</t>
+          <t>-30,37; 70,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 127,06</t>
+          <t>-23,26; 113,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 184,0</t>
+          <t>-12,29; 141,5</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15,8; 221,15</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 247,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P40_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,26</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,01</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,55</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>16,97%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>92,77%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>24,77%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>144,57%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>68,79%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.414764603934996</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.129128120725781</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.599896222048594</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.906377671684488</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>5.396667176793349</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1697290805831869</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.930444223420347</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2135109563747612</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.411165644650183</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.6602955179237464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 10,65</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 13,81</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,65; 7,31</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 12,64</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 11,7</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-46,42; 123,79</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>3,68; 269,61</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-36,75; 167,14</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 527,11</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-13,85; 248,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.15559966681783</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.076774192552965</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.919053500559512</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.347685487562611</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.572947049380816</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4642327162769653</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.05136957415420673</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3878550064811612</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.03133960728624523</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1431539094767091</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.64680960851823</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.69644253380182</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.118620105143149</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.50906796667461</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>11.42533443542003</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.237867868170318</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.765860830857415</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.650767418850762</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>5.387363217889408</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.414011127189821</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,15</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,26</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>30,55%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>54,21%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>21,15%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>41,51%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>75,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 14,75</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,3; 17,71</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; 11,81</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,46; 16,59</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 14,85</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-26,6; 123,39</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-19,48; 178,04</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-36,93; 141,9</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-22,42; 190,31</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-16,01; 290,48</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.150967673256071</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.582390432085052</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3202414724195912</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.804764763778975</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>7.269139596559272</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3054545676389005</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3018358384826236</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.01943502125131168</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.379777030146785</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.7617737883275059</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-10,5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>24,21</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>20,85</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>16,79</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-26,17%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-28,13%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.672580667089546</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.592111677580546</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.31713382457417</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.936994778056317</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-1.784842675452286</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2659993783822989</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3053021231566614</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4634440398330587</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2754177283091211</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1542698940801362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-45,66; 18,54</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-49,1; 16,62</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>11,5; 40,74</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>10,43; 40,46</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 34,05</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-86,45; 192,67</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-82,84; 123,98</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.75459236061725</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.24611942725538</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.953893782097847</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>15.73859899398805</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>15.23739841674779</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.233886190696987</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.453332879255789</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.117815819859278</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.690866349850277</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.779261082882814</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,54 +879,40 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,51</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,02</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,33</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>12,46%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>38,88%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>46,88%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>95,67%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>96,58%</t>
+      <c r="C10" s="5" t="n">
+        <v>-8.515011842350036</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-12.60284235200714</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>23.25594823392477</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>20.34852663056958</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>16.47138092862545</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.2617254989793391</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3270503308312979</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -1049,62 +920,186 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 9,2</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,26; 11,73</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 9,26</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 13,15</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 11,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-30,37; 70,04</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-23,26; 113,59</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; 141,5</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>15,8; 221,15</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>22,85; 247,47</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-45.66279650781587</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-48.97626569484764</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>10.8477358083651</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>10.32974478791448</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>5.627927214609829</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.864452171724189</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8507235061162701</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.53847315124485</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.4815282701405</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>39.84759609593132</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>40.3967392804089</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>32.64464600264867</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.926687620846901</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.075000217418422</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.161462337554046</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.280699182956013</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.048724508871012</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.706714967522362</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.374622731102212</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1245854075938179</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2790101164550103</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2886295340930215</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.8783170415127612</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.9497404021067535</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.956947441528174</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.178411957062889</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.19121173926896</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.832716018619641</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.582361556692781</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3037139931533821</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2452596645749582</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2144108936121149</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.09657679361520197</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2049207351389605</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.196876916992675</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.78739793876887</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.233435172646661</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.07645793784877</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>12.1841916360928</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.700441605023957</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.010876430316529</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.133518653113213</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.160337922008968</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.443821877500248</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1107,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
